--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-60-9.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-60-9.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>A,C</t>
+  </si>
+  <si>
     <t>A,B</t>
   </si>
   <si>
-    <t>A,C</t>
+    <t>E</t>
   </si>
   <si>
     <t>C,D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -441,48 +441,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>1936</v>
+        <v>1779</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>441</v>
+        <v>1632</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -493,25 +493,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>1085</v>
+        <v>1593</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -519,233 +519,233 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>1095</v>
+        <v>1701</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>1322</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F7">
-        <v>1863</v>
+        <v>2030</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="F8">
-        <v>444</v>
+        <v>1348</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="F9">
-        <v>1811</v>
+        <v>1825</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="F10">
-        <v>1833</v>
+        <v>490</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="F11">
-        <v>1643</v>
+        <v>2175</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>459</v>
+        <v>700</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>459</v>
+        <v>700</v>
       </c>
       <c r="F12">
-        <v>1749</v>
+        <v>2169</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>600</v>
+        <v>735</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>600</v>
+        <v>735</v>
       </c>
       <c r="F13">
-        <v>899</v>
+        <v>2552</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -753,25 +753,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="F14">
-        <v>2322</v>
+        <v>838</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -779,22 +779,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>638</v>
+        <v>820</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>638</v>
+        <v>820</v>
       </c>
       <c r="F15">
-        <v>2028</v>
+        <v>2371</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -805,25 +805,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>782</v>
+        <v>845</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>782</v>
+        <v>845</v>
       </c>
       <c r="F16">
-        <v>1880</v>
+        <v>2213</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -831,77 +831,77 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>950</v>
+        <v>856</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>950</v>
+        <v>856</v>
       </c>
       <c r="F17">
-        <v>2147</v>
+        <v>2378</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>963</v>
+        <v>903</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>963</v>
+        <v>903</v>
       </c>
       <c r="F18">
-        <v>2302</v>
+        <v>2226</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B19">
-        <v>1129</v>
+        <v>1067</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1129</v>
+        <v>1067</v>
       </c>
       <c r="F19">
-        <v>2743</v>
+        <v>2467</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -909,51 +909,51 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="F20">
-        <v>2117</v>
+        <v>2180</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>1179</v>
+        <v>1155</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>1179</v>
+        <v>1155</v>
       </c>
       <c r="F21">
-        <v>2577</v>
+        <v>2872</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -961,51 +961,51 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F22">
-        <v>1399</v>
+        <v>3022</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="F23">
-        <v>1371</v>
+        <v>3049</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1013,74 +1013,74 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="F24">
-        <v>3039</v>
+        <v>1345</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>1243</v>
+        <v>1295</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1243</v>
+        <v>1295</v>
       </c>
       <c r="F25">
-        <v>2476</v>
+        <v>2729</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>1245</v>
+        <v>1324</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>1245</v>
+        <v>1324</v>
       </c>
       <c r="F26">
-        <v>1512</v>
+        <v>2929</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1091,25 +1091,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>1245</v>
+        <v>1330</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>1245</v>
+        <v>1330</v>
       </c>
       <c r="F27">
-        <v>2835</v>
+        <v>2811</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1117,48 +1117,48 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>1287</v>
+        <v>1390</v>
       </c>
       <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1390</v>
+      </c>
+      <c r="F28">
+        <v>2625</v>
+      </c>
+      <c r="G28" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>1287</v>
-      </c>
-      <c r="F28">
-        <v>3088</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>1306</v>
+        <v>1397</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1306</v>
+        <v>1397</v>
       </c>
       <c r="F29">
-        <v>1548</v>
+        <v>2403</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1169,22 +1169,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="F30">
-        <v>1593</v>
+        <v>3120</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1195,103 +1195,103 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>11</v>
       </c>
       <c r="E31">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F31">
-        <v>1671</v>
+        <v>3038</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>1434</v>
+        <v>1520</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>1434</v>
+        <v>1520</v>
       </c>
       <c r="F32">
-        <v>1640</v>
+        <v>3228</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>1638</v>
+        <v>1531</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>1638</v>
+        <v>1531</v>
       </c>
       <c r="F33">
-        <v>1794</v>
+        <v>1666</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>1672</v>
+        <v>1644</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>1672</v>
+        <v>1644</v>
       </c>
       <c r="F34">
-        <v>2732</v>
+        <v>2786</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1299,25 +1299,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>1676</v>
+        <v>1656</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>1676</v>
+        <v>1656</v>
       </c>
       <c r="F35">
-        <v>3271</v>
+        <v>3028</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>1786</v>
+        <v>1724</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>1786</v>
+        <v>1724</v>
       </c>
       <c r="F36">
-        <v>2959</v>
+        <v>2703</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1351,51 +1351,51 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>1828</v>
+        <v>1775</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>1828</v>
+        <v>1775</v>
       </c>
       <c r="F37">
-        <v>2886</v>
+        <v>3394</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2035</v>
+        <v>1801</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2035</v>
+        <v>1801</v>
       </c>
       <c r="F38">
-        <v>3594</v>
+        <v>3493</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>2161</v>
+        <v>1905</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>2161</v>
+        <v>1905</v>
       </c>
       <c r="F39">
-        <v>3914</v>
+        <v>3166</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1429,25 +1429,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>2234</v>
+        <v>2125</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>2234</v>
+        <v>2125</v>
       </c>
       <c r="F40">
-        <v>3559</v>
+        <v>2233</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1455,22 +1455,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>2665</v>
+        <v>2202</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>2665</v>
+        <v>2202</v>
       </c>
       <c r="F41">
-        <v>2856</v>
+        <v>4009</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -1481,51 +1481,51 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>2684</v>
+        <v>2271</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>2684</v>
+        <v>2271</v>
       </c>
       <c r="F42">
-        <v>2966</v>
+        <v>3591</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>2727</v>
+        <v>2278</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>2727</v>
+        <v>2278</v>
       </c>
       <c r="F43">
-        <v>3982</v>
+        <v>2369</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1533,77 +1533,77 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>2734</v>
+        <v>2393</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>2734</v>
+        <v>2393</v>
       </c>
       <c r="F44">
-        <v>4496</v>
+        <v>2514</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>2767</v>
+        <v>2455</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>2767</v>
+        <v>2455</v>
       </c>
       <c r="F45">
-        <v>4603</v>
+        <v>3874</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>2768</v>
+        <v>2458</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>2768</v>
+        <v>2458</v>
       </c>
       <c r="F46">
-        <v>3002</v>
+        <v>4173</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1611,100 +1611,100 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>2799</v>
+        <v>2508</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>2799</v>
+        <v>2508</v>
       </c>
       <c r="F47">
-        <v>4197</v>
+        <v>3843</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>2821</v>
+        <v>2676</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>2821</v>
+        <v>2676</v>
       </c>
       <c r="F48">
-        <v>3998</v>
+        <v>4510</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>2833</v>
+        <v>2716</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>2833</v>
+        <v>2716</v>
       </c>
       <c r="F49">
-        <v>4316</v>
+        <v>2797</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>2969</v>
+        <v>2806</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>2969</v>
+        <v>2806</v>
       </c>
       <c r="F50">
-        <v>4345</v>
+        <v>3925</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -1715,25 +1715,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>3033</v>
+        <v>2814</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>3033</v>
+        <v>2814</v>
       </c>
       <c r="F51">
-        <v>4483</v>
+        <v>4443</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -1741,25 +1741,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>3076</v>
+        <v>2827</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>3076</v>
+        <v>2827</v>
       </c>
       <c r="F52">
-        <v>4791</v>
+        <v>4185</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1767,51 +1767,51 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>3087</v>
+        <v>3018</v>
       </c>
       <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
         <v>39</v>
       </c>
-      <c r="D53">
-        <v>17</v>
-      </c>
       <c r="E53">
-        <v>3087</v>
+        <v>3018</v>
       </c>
       <c r="F53">
-        <v>3331</v>
+        <v>4717</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>3142</v>
+        <v>3107</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E54">
-        <v>3142</v>
+        <v>3107</v>
       </c>
       <c r="F54">
-        <v>4278</v>
+        <v>4119</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -1819,25 +1819,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>3173</v>
+        <v>3144</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>3173</v>
+        <v>3144</v>
       </c>
       <c r="F55">
-        <v>4865</v>
+        <v>4455</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -1845,25 +1845,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="F56">
-        <v>4932</v>
+        <v>4540</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -1871,132 +1871,132 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>3230</v>
+        <v>3196</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>3230</v>
+        <v>3196</v>
       </c>
       <c r="F57">
-        <v>4709</v>
+        <v>4160</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>3235</v>
+        <v>3398</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>3235</v>
+        <v>3398</v>
       </c>
       <c r="F58">
-        <v>4769</v>
+        <v>5167</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>3240</v>
+        <v>3459</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>3240</v>
+        <v>3459</v>
       </c>
       <c r="F59">
-        <v>4356</v>
+        <v>4654</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>3498</v>
+        <v>3520</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>3498</v>
+        <v>3520</v>
       </c>
       <c r="F60">
-        <v>5261</v>
+        <v>5108</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>3599</v>
+        <v>3560</v>
       </c>
       <c r="C61">
         <v>37</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>3599</v>
+        <v>3560</v>
       </c>
       <c r="F61">
-        <v>4737</v>
+        <v>5256</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
